--- a/data/trans_camb/P2A_fisi_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P2A_fisi_R-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>1.231364012227786</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>2.477843585791139</v>
+        <v>2.477843585791138</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1.825591344673934</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.368215937196398</v>
+        <v>-1.435082281714224</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.966908351757426</v>
+        <v>-2.110884023999716</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.71766470632616</v>
+        <v>2.048365393621818</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.6936190046111815</v>
+        <v>-1.027947687447736</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.00057238978884</v>
+        <v>-1.890409525496989</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.6518796210086477</v>
+        <v>-0.5015868058842474</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.3203475296980686</v>
+        <v>-0.2457561468401551</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.222001845291664</v>
+        <v>-1.190817633476201</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.763069382220875</v>
+        <v>1.909735786658345</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.381495555583714</v>
+        <v>4.54066696148623</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.69008211240209</v>
+        <v>2.998994585054477</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.467063580728114</v>
+        <v>8.04145744440495</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.037954447837138</v>
+        <v>6.038938068142639</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.581596581051864</v>
+        <v>4.275774660270943</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.038537762526795</v>
+        <v>4.937769308311318</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.107294310434321</v>
+        <v>4.368938377705096</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.783694390083491</v>
+        <v>2.776473230316604</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>6.006937842900206</v>
+        <v>5.871871071472385</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.3623118955661248</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7290713368016466</v>
+        <v>0.7290713368016464</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.5452158851958453</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3165061290385473</v>
+        <v>-0.3764120983865008</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.460627385701992</v>
+        <v>-0.4774715930340382</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.4896606307296055</v>
+        <v>0.4002385240195624</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2067199961986934</v>
+        <v>-0.2922081319477232</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4654554918218037</v>
+        <v>-0.4246904484107995</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1442319664828805</v>
+        <v>-0.1045283346743403</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1136690291070356</v>
+        <v>-0.07997324604030057</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2925965257680134</v>
+        <v>-0.2818895671713998</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.3988412875970703</v>
+        <v>0.4123125431717307</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.034964777644798</v>
+        <v>2.137031374032167</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.314118289428063</v>
+        <v>1.392490400488729</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.801182660847368</v>
+        <v>3.62134834190924</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.910912782405737</v>
+        <v>2.931586373131311</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.257336292289128</v>
+        <v>2.212667504278211</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.81941572391709</v>
+        <v>2.718914504991937</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.531748487346765</v>
+        <v>1.702301242611015</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.009692036509964</v>
+        <v>1.151683122265012</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.496313667392315</v>
+        <v>2.444197144856428</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>1.738262314321299</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4.277403538578326</v>
+        <v>4.277403538578324</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.60858285785692</v>
@@ -869,7 +869,7 @@
         <v>-1.229511432934616</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>2.241841672216611</v>
+        <v>2.241841672216612</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>2.121057120608711</v>
@@ -878,7 +878,7 @@
         <v>0.2530538316771816</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>3.26595740929914</v>
+        <v>3.265957409299141</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01822021957179088</v>
+        <v>-0.3288352718614143</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.343531264459059</v>
+        <v>-0.9029064200952478</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.178507373249255</v>
+        <v>1.25137096283653</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.769558475709832</v>
+        <v>-2.004855090773205</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.449299119364431</v>
+        <v>-4.164242647260195</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.7583000225061446</v>
+        <v>-0.5775961571650852</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.2065768713400141</v>
+        <v>-0.1318072937556556</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.786513913165961</v>
+        <v>-1.662889998514033</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.203513173728058</v>
+        <v>1.171053002628294</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.718157355742888</v>
+        <v>5.729429529053844</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.626915597118212</v>
+        <v>4.266293518853768</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.367467944270061</v>
+        <v>7.555815305119845</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.875333960814475</v>
+        <v>4.949372255195833</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.571690862011487</v>
+        <v>1.609377466288072</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.074568338415632</v>
+        <v>5.240893258245145</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.415139424296291</v>
+        <v>4.444785063469711</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.371570085419082</v>
+        <v>2.365339710670679</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.428706456209503</v>
+        <v>5.195750951244634</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.6410140123553897</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1.577365845268178</v>
+        <v>1.577365845268177</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.3666372668624885</v>
@@ -974,7 +974,7 @@
         <v>-0.2802371722075295</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5109731832744913</v>
+        <v>0.5109731832744916</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.5966138861611634</v>
@@ -983,7 +983,7 @@
         <v>0.07117933244606282</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.9186530259211552</v>
+        <v>0.9186530259211556</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.06091973152578619</v>
+        <v>-0.1355879320062276</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3832589134501775</v>
+        <v>-0.2490137664682872</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2360442765355502</v>
+        <v>0.1377625403119983</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3320934439353214</v>
+        <v>-0.3308031170062266</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7363573755702794</v>
+        <v>-0.7147133090341968</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1650392823301953</v>
+        <v>-0.1401638592313354</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.08999911985708009</v>
+        <v>-0.04078411774871125</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3914716967954966</v>
+        <v>-0.3743284701616407</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.223065137233439</v>
+        <v>0.2093249191365031</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4.276666428129878</v>
+        <v>3.867865583671952</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3.081992179252721</v>
+        <v>3.119666066861062</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5.680335415858495</v>
+        <v>4.96011854544663</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.565870123679099</v>
+        <v>1.713526560503375</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5672688003111198</v>
+        <v>0.582638099343403</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.818514203745683</v>
+        <v>1.968728152298208</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.698842760470187</v>
+        <v>1.717643492453526</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8758178363729765</v>
+        <v>0.9277363468904811</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.120654570230173</v>
+        <v>1.941785519398049</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.5257543144740452</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6.236375836517674</v>
+        <v>6.236375836517672</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.866877906289007</v>
@@ -1092,7 +1092,7 @@
         <v>0.4198347441804168</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>5.663864761393746</v>
+        <v>5.663864761393745</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.5832871053738005</v>
+        <v>-0.5941179800265638</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.382887873510852</v>
+        <v>-2.405105700038364</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.737511665927758</v>
+        <v>2.934889206569982</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.965972658623294</v>
+        <v>-4.826543628700289</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.535976344170946</v>
+        <v>-5.673159544418626</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.680880403764794</v>
+        <v>-1.853146965497791</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.6065057544550062</v>
+        <v>-0.6971646533226591</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.216629155235683</v>
+        <v>-2.194155640462449</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.696170475251797</v>
+        <v>2.710839888330701</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.806986629082879</v>
+        <v>5.696790038332727</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.484896195209287</v>
+        <v>3.508956541547086</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.91810925237818</v>
+        <v>10.28030924396533</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.52612352965191</v>
+        <v>6.198080659647922</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.81960988388335</v>
+        <v>6.565291997772199</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>10.10071308394245</v>
+        <v>9.713168540275049</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.779040486534487</v>
+        <v>4.568141195800725</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.089149002290218</v>
+        <v>3.247345056957347</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>9.033888157638279</v>
+        <v>8.72245141267854</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.06527585415771169</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.8806169933731416</v>
+        <v>0.8806169933731414</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.0955879787264208</v>
+        <v>-0.09530746195101239</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3486202930935124</v>
+        <v>-0.3136001607841888</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.3684467790018792</v>
+        <v>0.3281719495936518</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4414791131596744</v>
+        <v>-0.418845419426539</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.546512155889071</v>
+        <v>-0.5468353545527147</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1727521854186509</v>
+        <v>-0.2280270549960384</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.0900438965643828</v>
+        <v>-0.0904576753438688</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.30381618551302</v>
+        <v>-0.30671544665761</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2990573173471275</v>
+        <v>0.3358989307402199</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.229911423178257</v>
+        <v>1.216179024996164</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.7853552685320532</v>
+        <v>0.7627309319525287</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.122422220914391</v>
+        <v>2.125648336936607</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.334835273678492</v>
+        <v>1.143538825270893</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.46108394362117</v>
+        <v>1.286997077831085</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.965535246097012</v>
+        <v>1.858258088148024</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9077244528340325</v>
+        <v>0.8777185211746348</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6000596993910468</v>
+        <v>0.6167853863355851</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.673363377802103</v>
+        <v>1.634338665856063</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>0.3548272267241817</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>2.581452926088899</v>
+        <v>2.581452926088898</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3.032546578015323</v>
@@ -1306,7 +1306,7 @@
         <v>0.2515804538504446</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>4.54962340084001</v>
+        <v>4.549623400840014</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.553554876638727</v>
+        <v>0.7625017949733739</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.863356031181505</v>
+        <v>-1.675601504107251</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.642516219380487</v>
+        <v>3.746315937121879</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1765031674013513</v>
+        <v>0.1464252113246225</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.273714738976761</v>
+        <v>-2.52079793389751</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.02304495470356781</v>
+        <v>0.04715766674015841</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.431952690845008</v>
+        <v>1.269982157371448</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.301766731937511</v>
+        <v>-1.388267483686909</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.037116716964395</v>
+        <v>2.689172720837917</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.946775483968207</v>
+        <v>5.244421163711778</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.327872943780696</v>
+        <v>2.306270994002394</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.338639845542554</v>
+        <v>8.537947646205033</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.326897626743683</v>
+        <v>6.031051160051089</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.253033295310098</v>
+        <v>2.914301900436056</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.949967119155999</v>
+        <v>5.042932036767578</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.931302271807133</v>
+        <v>4.707722612281981</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.885287588293246</v>
+        <v>1.935892605069739</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6.482447349375629</v>
+        <v>6.332574274597579</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.05362564353043108</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3901393804614637</v>
+        <v>0.3901393804614635</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.4753184627141838</v>
@@ -1411,7 +1411,7 @@
         <v>0.03943248075397764</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.7131036391965431</v>
+        <v>0.7131036391965437</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.07326944866765021</v>
+        <v>0.08484593381236456</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2686132684535114</v>
+        <v>-0.2415977725168234</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.4986074267305844</v>
+        <v>0.5199675005331337</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.01906752981681544</v>
+        <v>0.01313288173569608</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2782477125727377</v>
+        <v>-0.30774247388312</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.008272984923562966</v>
+        <v>0.0007934561426303499</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1973059733095052</v>
+        <v>0.1680996684435338</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1831713032649744</v>
+        <v>-0.1903176865403186</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.4223793037927168</v>
+        <v>0.3750280162225829</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.9230101343098354</v>
+        <v>0.9515102084370876</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4332421124750003</v>
+        <v>0.4323741511185584</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.536108204617484</v>
+        <v>1.590995364754242</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.282812261320582</v>
+        <v>1.094603117753247</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6499310354841238</v>
+        <v>0.5713790131895421</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9429725297394527</v>
+        <v>1.01170409763311</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8800541108922482</v>
+        <v>0.8452860336076774</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3480706590393031</v>
+        <v>0.3489422724682641</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.215422562772748</v>
+        <v>1.116225435168214</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-0.7189223049307664</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>8.763900200777822</v>
+        <v>8.763900200777819</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>3.746046593986146</v>
@@ -1511,7 +1511,7 @@
         <v>0.5711922342494763</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>7.601080390413209</v>
+        <v>7.601080390413206</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>2.486892154632423</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.210141711523071</v>
+        <v>-3.076574091102945</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.054458785834727</v>
+        <v>-3.810011003548443</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4.855135184456027</v>
+        <v>4.835121727526716</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.4259112533465366</v>
+        <v>-0.1052850838612482</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.702740669744768</v>
+        <v>-2.425451776307131</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>4.422045775234031</v>
+        <v>4.430507406131247</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.1254854736995762</v>
+        <v>0.00557481215750562</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.328929765199725</v>
+        <v>-2.431228650697423</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>5.571001336074398</v>
+        <v>5.48085458268855</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.804800406028052</v>
+        <v>3.709066117862952</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.301149128162813</v>
+        <v>2.284344597492143</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>12.99863412973911</v>
+        <v>13.07473548200996</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.268161653380671</v>
+        <v>6.821628837886768</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.493469036719801</v>
+        <v>3.632309313925165</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>10.21053803543581</v>
+        <v>10.45209252467629</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.821970416518383</v>
+        <v>4.895406316268224</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.123998908632874</v>
+        <v>2.248515332353779</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>10.56510261592765</v>
+        <v>10.5242906306038</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.1137285760398769</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1.38638888173881</v>
+        <v>1.386388881738809</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.5029106630296151</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3783487028906912</v>
+        <v>-0.3689513657531001</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4840732984707971</v>
+        <v>-0.4491116164908323</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.5639265961258805</v>
+        <v>0.5038337467655168</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.03525282768419611</v>
+        <v>-0.03184520868724722</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2974661919445982</v>
+        <v>-0.269262436134075</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4669886256811528</v>
+        <v>0.4743732081310133</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.02233558062453711</v>
+        <v>-0.003464496830707078</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2783798654415729</v>
+        <v>-0.2846218381823254</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.6478533034168571</v>
+        <v>0.642246760538562</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.8647831921134869</v>
+        <v>0.8987669671252464</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5724135654992695</v>
+        <v>0.5789154162872093</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>3.235567309238177</v>
+        <v>2.911894844923815</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.196183961554517</v>
+        <v>1.139154820699436</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.5947796552127704</v>
+        <v>0.6015223863068514</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.741523553611752</v>
+        <v>1.817854387396213</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.835275925460786</v>
+        <v>0.8247658238199685</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.3684940681158929</v>
+        <v>0.3853304978202238</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.858619814353941</v>
+        <v>1.944738116752568</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>2.787065529576782</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2.872130166074435</v>
+        <v>2.872130166074434</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>2.598653957523525</v>
@@ -1725,7 +1725,7 @@
         <v>1.354102191628967</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>8.518161006414935</v>
+        <v>8.518161006414939</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>2.582180385545204</v>
@@ -1734,7 +1734,7 @@
         <v>1.580612321770011</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>7.163676231027241</v>
+        <v>7.163676231027244</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.3511903304400334</v>
+        <v>-0.7309104368234882</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.2916577090358882</v>
+        <v>-0.2202843555899716</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.5279438036670023</v>
+        <v>-0.5292449939806387</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>0.4935602504766488</v>
+        <v>0.518102853555376</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.7504763090169929</v>
+        <v>-0.7937780653812879</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>5.979077761279642</v>
+        <v>6.077817510064105</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0.7619319131537844</v>
+        <v>0.6971914918254102</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.3244794497628171</v>
+        <v>-0.3670643790726139</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>4.965806907305765</v>
+        <v>5.132502503925085</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>6.372991303557677</v>
+        <v>6.213157215896965</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>6.069282806700832</v>
+        <v>5.788954868824693</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>8.111528100207078</v>
+        <v>8.555440668407158</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4.97134490283594</v>
+        <v>5.097033976083738</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>3.623256356688278</v>
+        <v>3.516534872628391</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>11.23096491851347</v>
+        <v>11.12278615423911</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>4.479584590903225</v>
+        <v>4.482817441649718</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>3.402956441358923</v>
+        <v>3.4559845982536</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>9.283451349640027</v>
+        <v>9.504598268186719</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.2074422843560174</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>1.304943444155685</v>
+        <v>1.304943444155686</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.4541130399976724</v>
@@ -1839,7 +1839,7 @@
         <v>0.2779730922420459</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>1.259834056923944</v>
+        <v>1.259834056923945</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.194535929678967</v>
+        <v>-0.4096188683905605</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1458051994212996</v>
+        <v>-0.171047483816067</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.3573614377292295</v>
+        <v>-0.4025911130760682</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.0423104347313247</v>
+        <v>0.05461786755485408</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.09785137249017213</v>
+        <v>-0.1031192246844188</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7676358992262604</v>
+        <v>0.7907342358585279</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1167778132090806</v>
+        <v>0.09989509651024883</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.05153297945530735</v>
+        <v>-0.05321285590896058</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.7408707245819768</v>
+        <v>0.7837582531545952</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>6.079216371241807</v>
+        <v>5.302911092273439</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>6.105164725246039</v>
+        <v>5.364563161076975</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>9.046180691272427</v>
+        <v>6.327090874013491</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.88490845321714</v>
+        <v>0.8974912354753823</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.6482179790642436</v>
+        <v>0.6302279916669664</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2.003664635540573</v>
+        <v>1.986030282147668</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.9040576252895116</v>
+        <v>0.8879532527858103</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.6897126709590449</v>
+        <v>0.7161779304702602</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.86645342565947</v>
+        <v>1.930754071849857</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>0.6020379691490635</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>5.450205574536636</v>
+        <v>5.450205574536638</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>1.139523728234757</v>
+        <v>0.9740827763028895</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.6425915930602581</v>
+        <v>-0.5240457021634546</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>4.518528307510243</v>
+        <v>4.602400237421786</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1.640485933534549</v>
+        <v>1.543405732704801</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.5210894641775281</v>
+        <v>-0.6730038069320727</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>3.874352293867463</v>
+        <v>3.77185368172016</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>1.758647187705239</v>
+        <v>1.747330843420973</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.2426464205070755</v>
+        <v>-0.2968933230416727</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>4.485337789789394</v>
+        <v>4.626517519771477</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.455894742354208</v>
+        <v>3.545544094631012</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.566610644480769</v>
+        <v>1.693228791777978</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>7.177506675324747</v>
+        <v>7.175341366426016</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4.038613262730051</v>
+        <v>4.064656198936558</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.761149059587956</v>
+        <v>1.780224523960173</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>6.401715390955649</v>
+        <v>6.311100269856413</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>3.460062432281013</v>
+        <v>3.547145450868579</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.50303391133365</v>
+        <v>1.356260235907227</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>6.344566325712734</v>
+        <v>6.272299191121935</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.1009783823918494</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.8033066991923465</v>
+        <v>0.8033066991923468</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.4586884755785899</v>
@@ -2053,7 +2053,7 @@
         <v>0.1066944753679958</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.9658972593453361</v>
+        <v>0.9658972593453363</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.2040272679556786</v>
+        <v>0.1714393300731467</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1109009964035039</v>
+        <v>-0.09312057196691695</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.7777222121662261</v>
+        <v>0.794718334470455</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.2391764519950124</v>
+        <v>0.22083688064139</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.07467954004937186</v>
+        <v>-0.09550604689462876</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.5528303129529872</v>
+        <v>0.5404838177763593</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2925284069071327</v>
+        <v>0.2836879810039158</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.03847089629250981</v>
+        <v>-0.04745081658829224</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.7214744604931178</v>
+        <v>0.7748133528780656</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.7697094614868726</v>
+        <v>0.7788169396601459</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.3413086117442156</v>
+        <v>0.3806754195851677</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.568570064208096</v>
+        <v>1.582814002552038</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.7024023667827299</v>
+        <v>0.6960507317914092</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.3126431578545751</v>
+        <v>0.3116366240329426</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.141174966244183</v>
+        <v>1.116412711165084</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.6546733172695778</v>
+        <v>0.6745850733993413</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.295114566219039</v>
+        <v>0.2575826661754608</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.203360175906266</v>
+        <v>1.186602670024534</v>
       </c>
     </row>
     <row r="46">
